--- a/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="599">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T10:20:25+00:00</t>
+    <t>2024-01-15T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -541,6 +541,22 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t>eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary}
+</t>
+  </si>
+  <si>
+    <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
   </si>
   <si>
@@ -551,7 +567,7 @@
 </t>
   </si>
   <si>
-    <t>autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
+    <t>Autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
   </si>
   <si>
     <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
@@ -2172,7 +2188,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO93"/>
+  <dimension ref="A1:AO94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2183,7 +2199,7 @@
   <cols>
     <col min="1" max="1" width="60.55078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.16796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="29.953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3768,7 +3784,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>91</v>
@@ -3858,7 +3874,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3872,11 +3888,13 @@
         <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3886,29 +3904,25 @@
         <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3944,19 +3958,19 @@
         <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3977,7 +3991,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3995,7 +4009,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4008,23 +4022,25 @@
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4061,10 +4077,10 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
@@ -4073,7 +4089,7 @@
         <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4085,34 +4101,32 @@
         <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
@@ -4121,10 +4135,10 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
@@ -4133,17 +4147,17 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4180,19 +4194,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4207,29 +4221,31 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4241,25 +4257,27 @@
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4307,53 +4325,53 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4365,17 +4383,15 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4412,31 +4428,31 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4445,7 +4461,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4456,46 +4472,44 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4504,7 +4518,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -4519,52 +4533,52 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4575,10 +4589,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4586,7 +4600,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
@@ -4595,25 +4609,25 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4623,7 +4637,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>80</v>
@@ -4638,13 +4652,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4662,7 +4676,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4680,10 +4694,10 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4694,10 +4708,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4720,19 +4734,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4745,7 +4759,7 @@
         <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>80</v>
@@ -4757,13 +4771,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4781,7 +4795,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4799,10 +4813,10 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4813,10 +4827,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4839,18 +4853,20 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4862,7 +4878,7 @@
         <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>80</v>
@@ -4898,7 +4914,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4916,10 +4932,10 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4930,10 +4946,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4956,16 +4972,16 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4979,7 +4995,7 @@
         <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>80</v>
@@ -5015,7 +5031,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5027,16 +5043,16 @@
         <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5047,10 +5063,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5073,16 +5089,16 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5132,7 +5148,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5144,16 +5160,16 @@
         <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5164,14 +5180,12 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5180,10 +5194,10 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
@@ -5192,18 +5206,18 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5251,44 +5265,46 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5297,28 +5313,30 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5366,53 +5384,53 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5424,17 +5442,15 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5471,31 +5487,31 @@
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5504,7 +5520,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5515,46 +5531,44 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>205</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5563,7 +5577,7 @@
         <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>80</v>
@@ -5578,52 +5592,52 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5634,10 +5648,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5645,7 +5659,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
@@ -5654,25 +5668,25 @@
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5682,7 +5696,7 @@
         <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>80</v>
@@ -5697,13 +5711,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5721,7 +5735,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5739,10 +5753,10 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5753,10 +5767,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5779,19 +5793,19 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5804,7 +5818,7 @@
         <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>80</v>
@@ -5816,13 +5830,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5840,7 +5854,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5858,10 +5872,10 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5872,10 +5886,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5898,18 +5912,20 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5921,7 +5937,7 @@
         <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>80</v>
@@ -5957,7 +5973,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5975,10 +5991,10 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5989,10 +6005,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6015,16 +6031,16 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6038,7 +6054,7 @@
         <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>80</v>
@@ -6074,7 +6090,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6086,16 +6102,16 @@
         <v>102</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6106,10 +6122,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6132,16 +6148,16 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6191,7 +6207,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6203,16 +6219,16 @@
         <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6223,10 +6239,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6240,7 +6256,7 @@
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -6249,16 +6265,16 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6308,7 +6324,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6320,19 +6336,19 @@
         <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6340,10 +6356,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6354,10 +6370,10 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6366,16 +6382,16 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6425,31 +6441,31 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6457,14 +6473,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6483,20 +6499,18 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6544,7 +6558,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6556,19 +6570,19 @@
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6576,44 +6590,46 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6637,13 +6653,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6661,42 +6677,42 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6704,31 +6720,31 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6754,13 +6770,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6778,10 +6794,10 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>90</v>
@@ -6793,27 +6809,27 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6827,7 +6843,7 @@
         <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6836,16 +6852,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6871,11 +6887,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6893,7 +6911,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6908,16 +6926,16 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="AN40" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6925,10 +6943,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6939,7 +6957,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>91</v>
@@ -6951,16 +6969,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="N41" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6986,11 +7004,11 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7008,13 +7026,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>102</v>
@@ -7023,16 +7041,16 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7040,10 +7058,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7057,7 +7075,7 @@
         <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
@@ -7066,16 +7084,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7101,13 +7119,11 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7125,7 +7141,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7140,27 +7156,27 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7174,7 +7190,7 @@
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -7183,16 +7199,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7218,13 +7234,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7233,16 +7249,16 @@
         <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7257,31 +7273,29 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7302,16 +7316,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7337,13 +7351,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7352,16 +7366,16 @@
         <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7376,29 +7390,31 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7407,27 +7423,29 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>195</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7437,7 +7455,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7452,13 +7470,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7476,53 +7494,53 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7534,17 +7552,15 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7554,7 +7570,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7581,31 +7597,31 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7614,7 +7630,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7625,14 +7641,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7648,23 +7664,21 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>354</v>
+        <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
+        <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>356</v>
+        <v>205</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7700,19 +7714,19 @@
         <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>206</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7724,16 +7738,16 @@
         <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>361</v>
+        <v>104</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7744,10 +7758,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7758,7 +7772,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7767,19 +7781,23 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>194</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>195</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7827,28 +7845,28 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>197</v>
+        <v>364</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>111</v>
+        <v>366</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7859,21 +7877,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7885,17 +7903,15 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7932,31 +7948,31 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7965,7 +7981,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7976,21 +7992,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7999,23 +8015,21 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>369</v>
+        <v>205</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8024,7 +8038,7 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>80</v>
@@ -8051,40 +8065,40 @@
         <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>373</v>
+        <v>206</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>375</v>
+        <v>104</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8095,10 +8109,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8121,18 +8135,20 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8141,7 +8157,7 @@
         <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>80</v>
@@ -8180,7 +8196,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8198,10 +8214,10 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8212,10 +8228,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8238,20 +8254,18 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8299,7 +8313,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8317,10 +8331,10 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8331,10 +8345,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8357,19 +8371,19 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8418,7 +8432,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8436,10 +8450,10 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8450,10 +8464,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8476,19 +8490,19 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>199</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8537,7 +8551,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8555,10 +8569,10 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8569,10 +8583,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8595,19 +8609,19 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>194</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8656,7 +8670,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8674,10 +8688,10 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8688,14 +8702,12 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8704,10 +8716,10 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8716,18 +8728,20 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>338</v>
+        <v>418</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8751,13 +8765,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8775,13 +8789,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>102</v>
@@ -8790,29 +8804,31 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>314</v>
+        <v>422</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>315</v>
+        <v>423</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8821,27 +8837,29 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>195</v>
+        <v>426</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8851,7 +8869,7 @@
         <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>80</v>
@@ -8866,13 +8884,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8890,53 +8908,53 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8948,17 +8966,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8968,7 +8984,7 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>80</v>
@@ -8995,31 +9011,31 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -9028,7 +9044,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9039,14 +9055,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9062,23 +9078,21 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>354</v>
+        <v>138</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>355</v>
+        <v>139</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>356</v>
+        <v>205</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9114,19 +9128,19 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>359</v>
+        <v>206</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9138,16 +9152,16 @@
         <v>102</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>361</v>
+        <v>104</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9158,10 +9172,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9169,10 +9183,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9184,19 +9198,19 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>194</v>
+        <v>359</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9245,13 +9259,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>102</v>
@@ -9263,10 +9277,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9277,10 +9291,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9288,13 +9302,13 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9303,16 +9317,20 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>428</v>
+        <v>199</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9360,13 +9378,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>102</v>
@@ -9375,16 +9393,16 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>111</v>
+        <v>423</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9392,10 +9410,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9406,25 +9424,25 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>194</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>195</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>196</v>
+        <v>435</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9475,22 +9493,22 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>197</v>
+        <v>432</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9499,7 +9517,7 @@
         <v>111</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9507,21 +9525,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9533,17 +9551,15 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9580,31 +9596,31 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -9613,7 +9629,7 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9624,26 +9640,24 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -9652,15 +9666,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>139</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9697,19 +9713,19 @@
         <v>80</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9730,7 +9746,7 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9744,7 +9760,7 @@
         <v>440</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>441</v>
@@ -9826,7 +9842,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9861,7 +9877,7 @@
         <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>446</v>
@@ -9943,7 +9959,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9978,7 +9994,7 @@
         <v>450</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>451</v>
@@ -9994,7 +10010,7 @@
         <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
@@ -10060,7 +10076,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10095,9 +10111,11 @@
         <v>455</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10115,20 +10133,18 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>194</v>
+        <v>457</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10177,19 +10193,19 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>459</v>
+        <v>206</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10198,7 +10214,7 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10223,7 +10239,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10235,15 +10251,17 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10298,22 +10316,22 @@
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>465</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>467</v>
+        <v>111</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10324,10 +10342,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10341,26 +10359,24 @@
         <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K70" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10409,7 +10425,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10421,19 +10437,19 @@
         <v>102</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>470</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>111</v>
+        <v>472</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10441,10 +10457,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10458,25 +10474,25 @@
         <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>216</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10502,10 +10518,10 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>80</v>
@@ -10526,7 +10542,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10541,16 +10557,16 @@
         <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10558,10 +10574,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10575,7 +10591,7 @@
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
@@ -10584,16 +10600,16 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10619,13 +10635,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10643,7 +10659,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10658,16 +10674,16 @@
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10675,10 +10691,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10689,7 +10705,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>91</v>
@@ -10698,19 +10714,19 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>491</v>
+        <v>315</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10736,13 +10752,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10760,13 +10776,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>102</v>
@@ -10775,16 +10791,16 @@
         <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10792,21 +10808,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>91</v>
@@ -10815,19 +10831,19 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10877,56 +10893,56 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>501</v>
+        <v>111</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>80</v>
@@ -10935,16 +10951,16 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>247</v>
+        <v>501</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>250</v>
+        <v>504</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10994,46 +11010,46 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>512</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11043,7 +11059,7 @@
         <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>80</v>
@@ -11052,16 +11068,16 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11111,7 +11127,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11123,30 +11139,30 @@
         <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>519</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11160,7 +11176,7 @@
         <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>80</v>
@@ -11169,16 +11185,16 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>521</v>
+        <v>262</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11228,7 +11244,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11240,30 +11256,30 @@
         <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>519</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11274,10 +11290,10 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
@@ -11286,16 +11302,16 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="N78" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11345,42 +11361,42 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AO78" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11391,10 +11407,10 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
@@ -11403,16 +11419,16 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>216</v>
+        <v>533</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="N79" t="s" s="2">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11438,13 +11454,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>537</v>
+        <v>80</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>538</v>
+        <v>80</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -11462,42 +11478,42 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>315</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11508,7 +11524,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11517,19 +11533,19 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>543</v>
+        <v>221</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>546</v>
+        <v>315</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11555,13 +11571,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>80</v>
+        <v>543</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11579,13 +11595,13 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>102</v>
@@ -11594,27 +11610,27 @@
         <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>104</v>
+        <v>319</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>548</v>
+        <v>320</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11637,15 +11653,17 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11694,7 +11712,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11709,16 +11727,16 @@
         <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AN81" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11726,10 +11744,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11740,7 +11758,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -11752,13 +11770,13 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>194</v>
+        <v>555</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>195</v>
+        <v>556</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>196</v>
+        <v>557</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11809,22 +11827,22 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>197</v>
+        <v>554</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -11833,7 +11851,7 @@
         <v>111</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11841,21 +11859,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -11867,17 +11885,15 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -11914,31 +11930,31 @@
         <v>80</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -11947,7 +11963,7 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>80</v>
@@ -11958,14 +11974,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>558</v>
+        <v>137</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11978,26 +11994,24 @@
         <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>559</v>
+        <v>139</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>560</v>
+        <v>205</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O84" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12033,19 +12047,19 @@
         <v>80</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>561</v>
+        <v>206</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12084,37 +12098,39 @@
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12162,31 +12178,31 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>566</v>
+        <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12205,7 +12221,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>90</v>
@@ -12220,7 +12236,7 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>568</v>
@@ -12229,7 +12245,7 @@
         <v>569</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12282,7 +12298,7 @@
         <v>567</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>90</v>
@@ -12297,10 +12313,10 @@
         <v>570</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>571</v>
@@ -12337,7 +12353,7 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>573</v>
@@ -12346,7 +12362,7 @@
         <v>574</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12414,10 +12430,10 @@
         <v>575</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>576</v>
@@ -12442,7 +12458,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12454,7 +12470,7 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>550</v>
+        <v>199</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>578</v>
@@ -12462,7 +12478,9 @@
       <c r="M88" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12517,7 +12535,7 @@
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>102</v>
@@ -12535,7 +12553,7 @@
         <v>111</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12543,10 +12561,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12557,7 +12575,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12569,13 +12587,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>194</v>
+        <v>555</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>195</v>
+        <v>583</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>196</v>
+        <v>584</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12626,22 +12644,22 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>197</v>
+        <v>582</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -12658,21 +12676,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12684,17 +12702,15 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12731,31 +12747,31 @@
         <v>80</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
@@ -12764,7 +12780,7 @@
         <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -12775,14 +12791,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>558</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12795,26 +12811,24 @@
         <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>559</v>
+        <v>139</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>560</v>
+        <v>205</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O91" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12850,19 +12864,19 @@
         <v>80</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>561</v>
+        <v>206</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12894,44 +12908,46 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -12979,28 +12995,28 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>80</v>
@@ -13011,10 +13027,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13037,16 +13053,16 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13072,13 +13088,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>591</v>
+        <v>80</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>592</v>
+        <v>80</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13096,7 +13112,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13111,23 +13127,140 @@
         <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AM93" t="s" s="2">
+      <c r="B94" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO93" t="s" s="2">
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO94" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO93">
+  <autoFilter ref="A1:AO94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13137,7 +13270,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:06:16+00:00</t>
+    <t>2024-01-15T16:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T16:45:58+00:00</t>
+    <t>2024-01-22T13:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T13:43:32+00:00</t>
+    <t>2024-01-23T09:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -541,6 +541,22 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-label-r5</t>
+  </si>
+  <si>
+    <t>eclaire-label-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label}
+</t>
+  </si>
+  <si>
+    <t>Autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
   </si>
   <si>
@@ -554,23 +570,7 @@
     <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
   </si>
   <si>
-    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-label-r5</t>
-  </si>
-  <si>
-    <t>eclaire-label-r5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label}
-</t>
-  </si>
-  <si>
-    <t>Autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
-  </si>
-  <si>
-    <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
+    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai.</t>
   </si>
   <si>
     <t>ResearchStudy.modifierExtension</t>
@@ -3784,7 +3784,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>91</v>
@@ -3874,7 +3874,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3901,7 +3901,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>91</v>
@@ -3991,7 +3991,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>

--- a/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T09:22:43+00:00</t>
+    <t>2024-01-23T10:11:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -541,6 +541,22 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t>eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary}
+</t>
+  </si>
+  <si>
+    <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
   </si>
   <si>
@@ -555,22 +571,6 @@
   </si>
   <si>
     <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
-  </si>
-  <si>
-    <t>eclaire-description-summary-r5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary}
-</t>
-  </si>
-  <si>
-    <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
-  </si>
-  <si>
-    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai.</t>
   </si>
   <si>
     <t>ResearchStudy.modifierExtension</t>
@@ -3784,7 +3784,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>91</v>
@@ -3874,7 +3874,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3901,7 +3901,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>91</v>
@@ -3991,7 +3991,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>

--- a/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T10:11:47+00:00</t>
+    <t>2024-01-23T11:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="617">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T11:35:49+00:00</t>
+    <t>2024-01-23T17:43:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -557,6 +557,80 @@
     <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
   </si>
   <si>
@@ -642,19 +716,6 @@
     <t>ResearchStudy.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>ResearchStudy.identifier:idPrimary.extension</t>
   </si>
   <si>
@@ -662,9 +723,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ResearchStudy.identifier:idPrimary.use</t>
@@ -1543,10 +1601,6 @@
   </si>
   <si>
     <t>ResearchStudy.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
   </si>
   <si>
     <t>Résumé de l'essai / Summary Results</t>
@@ -2188,7 +2242,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO94"/>
+  <dimension ref="A1:AO98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2197,7 +2251,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.55078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="29.953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3888,11 +3942,9 @@
         <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C15" t="s" s="2">
         <v>173</v>
       </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3901,10 +3953,10 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
@@ -3970,19 +4022,19 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3991,7 +4043,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -4002,27 +4054,27 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>80</v>
@@ -4031,17 +4083,13 @@
         <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -4089,7 +4137,7 @@
         <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4110,7 +4158,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4121,10 +4169,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4132,10 +4180,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -4144,27 +4192,27 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
         <v>186</v>
       </c>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>80</v>
@@ -4194,90 +4242,86 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4325,13 +4369,13 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>102</v>
@@ -4340,29 +4384,31 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4371,10 +4417,10 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -4383,13 +4429,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4440,19 +4486,19 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4461,7 +4507,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4472,10 +4518,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4492,7 +4538,7 @@
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>80</v>
@@ -4501,15 +4547,17 @@
         <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4557,7 +4605,7 @@
         <v>144</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4589,10 +4637,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4600,34 +4648,32 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4637,7 +4683,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>80</v>
@@ -4652,37 +4698,37 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>102</v>
@@ -4691,29 +4737,31 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4725,7 +4773,7 @@
         <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
@@ -4734,19 +4782,17 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4771,13 +4817,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4795,13 +4841,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>102</v>
@@ -4810,27 +4856,27 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4850,23 +4896,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4878,7 +4920,7 @@
         <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>80</v>
@@ -4914,7 +4956,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4923,19 +4965,19 @@
         <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4946,21 +4988,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4969,19 +5011,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4995,7 +5037,7 @@
         <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>80</v>
@@ -5019,40 +5061,40 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5063,10 +5105,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5074,7 +5116,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -5083,24 +5125,26 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>113</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5109,7 +5153,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>80</v>
@@ -5124,13 +5168,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5148,7 +5192,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5160,16 +5204,16 @@
         <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5180,10 +5224,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5206,18 +5250,20 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5241,13 +5287,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5265,7 +5311,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5277,16 +5323,16 @@
         <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5297,14 +5343,12 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5313,10 +5357,10 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
@@ -5325,17 +5369,19 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5348,7 +5394,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -5384,13 +5430,13 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>182</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>102</v>
@@ -5399,27 +5445,27 @@
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5439,18 +5485,20 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5463,7 +5511,7 @@
         <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>80</v>
@@ -5499,7 +5547,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5508,19 +5556,19 @@
         <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5531,21 +5579,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5554,19 +5602,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5604,40 +5652,40 @@
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5648,10 +5696,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5659,7 +5707,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
@@ -5668,26 +5716,24 @@
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5696,7 +5742,7 @@
         <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>80</v>
@@ -5711,13 +5757,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5735,7 +5781,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5747,16 +5793,16 @@
         <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5767,12 +5813,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5781,10 +5829,10 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5793,19 +5841,17 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5830,13 +5876,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5854,13 +5900,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>102</v>
@@ -5869,27 +5915,27 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5909,23 +5955,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5937,7 +5979,7 @@
         <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>80</v>
@@ -5973,7 +6015,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5982,19 +6024,19 @@
         <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6005,21 +6047,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6028,19 +6070,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6054,7 +6096,7 @@
         <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>80</v>
@@ -6078,40 +6120,40 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6122,10 +6164,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6133,7 +6175,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -6142,24 +6184,26 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>113</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6168,7 +6212,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -6183,13 +6227,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6207,7 +6251,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6219,16 +6263,16 @@
         <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6239,10 +6283,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6265,18 +6309,20 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6300,13 +6346,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -6324,7 +6370,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6336,16 +6382,16 @@
         <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6356,10 +6402,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6373,7 +6419,7 @@
         <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6382,18 +6428,20 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6405,7 +6453,7 @@
         <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>80</v>
@@ -6441,7 +6489,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6456,16 +6504,16 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6473,10 +6521,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6487,7 +6535,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6499,16 +6547,16 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6522,7 +6570,7 @@
         <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>80</v>
@@ -6558,31 +6606,31 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6590,21 +6638,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6616,20 +6664,18 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6677,28 +6723,28 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6709,10 +6755,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6720,31 +6766,31 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6770,13 +6816,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6794,10 +6840,10 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>90</v>
@@ -6806,30 +6852,30 @@
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6843,7 +6889,7 @@
         <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6852,16 +6898,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6887,13 +6933,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6911,7 +6957,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6926,16 +6972,16 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>320</v>
+        <v>111</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6943,10 +6989,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6957,10 +7003,10 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>80</v>
@@ -6969,16 +7015,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7004,11 +7050,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7026,31 +7074,31 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7058,14 +7106,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7075,7 +7123,7 @@
         <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
@@ -7084,18 +7132,20 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7119,11 +7169,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7141,7 +7193,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7153,19 +7205,19 @@
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7173,10 +7225,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7184,31 +7236,31 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7234,13 +7286,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>336</v>
+        <v>233</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7258,13 +7310,13 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>102</v>
@@ -7273,27 +7325,27 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7304,10 +7356,10 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7316,16 +7368,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7351,14 +7403,14 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7366,22 +7418,22 @@
         <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>102</v>
@@ -7390,31 +7442,29 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7423,7 +7473,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>91</v>
@@ -7435,16 +7485,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7470,13 +7520,11 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7494,13 +7542,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>102</v>
@@ -7509,27 +7557,27 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7540,27 +7588,29 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>200</v>
+        <v>347</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7570,7 +7620,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7585,13 +7635,11 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7609,31 +7657,31 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>202</v>
+        <v>346</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7641,14 +7689,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7664,19 +7712,19 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>205</v>
+        <v>354</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7702,10 +7750,10 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7714,19 +7762,19 @@
         <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>206</v>
+        <v>352</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7738,30 +7786,30 @@
         <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7775,7 +7823,7 @@
         <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -7784,20 +7832,18 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>240</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7821,13 +7867,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7836,16 +7882,16 @@
         <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7860,29 +7906,31 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7891,27 +7939,29 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7936,13 +7986,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7960,53 +8010,53 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>202</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -8018,17 +8068,15 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8038,7 +8086,7 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>80</v>
@@ -8065,31 +8113,31 @@
         <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -8098,7 +8146,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8109,21 +8157,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -8132,23 +8180,21 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>373</v>
+        <v>139</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>374</v>
+        <v>225</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8157,7 +8203,7 @@
         <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>80</v>
@@ -8184,40 +8230,40 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>378</v>
+        <v>182</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>380</v>
+        <v>104</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8228,10 +8274,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8242,7 +8288,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8254,18 +8300,20 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>199</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8313,13 +8361,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>102</v>
@@ -8331,10 +8379,10 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8345,10 +8393,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8368,23 +8416,19 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>175</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8432,7 +8476,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>394</v>
+        <v>177</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8441,19 +8485,19 @@
         <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>396</v>
+        <v>111</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8464,21 +8508,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8487,23 +8531,21 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>399</v>
+        <v>139</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8539,40 +8581,40 @@
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>402</v>
+        <v>182</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8583,10 +8625,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8609,19 +8651,19 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>407</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8631,7 +8673,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>80</v>
@@ -8670,7 +8712,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8688,10 +8730,10 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8702,10 +8744,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8728,20 +8770,18 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8789,7 +8829,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8807,10 +8847,10 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8821,14 +8861,12 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8837,10 +8875,10 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>80</v>
@@ -8849,18 +8887,20 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>343</v>
+        <v>411</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8884,13 +8924,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8908,13 +8948,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>102</v>
@@ -8923,27 +8963,27 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>319</v>
+        <v>414</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>353</v>
+        <v>417</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8963,19 +9003,23 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>200</v>
+        <v>418</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8984,7 +9028,7 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>80</v>
@@ -9023,7 +9067,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>202</v>
+        <v>421</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9032,19 +9076,19 @@
         <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>111</v>
+        <v>423</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9055,21 +9099,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9078,21 +9122,23 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>138</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>139</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>205</v>
+        <v>428</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9128,40 +9174,40 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>206</v>
+        <v>431</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>104</v>
+        <v>433</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9172,10 +9218,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>358</v>
+        <v>435</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9186,7 +9232,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9198,19 +9244,19 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>359</v>
+        <v>174</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>361</v>
+        <v>437</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>362</v>
+        <v>438</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9259,13 +9305,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>364</v>
+        <v>440</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>102</v>
@@ -9277,10 +9323,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>365</v>
+        <v>441</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>366</v>
+        <v>442</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9291,24 +9337,26 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9317,20 +9365,18 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9354,13 +9400,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9378,13 +9424,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>102</v>
@@ -9393,27 +9439,27 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>423</v>
+        <v>339</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9424,25 +9470,25 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>433</v>
+        <v>174</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>176</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9454,7 +9500,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9493,22 +9539,22 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>432</v>
+        <v>177</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9517,7 +9563,7 @@
         <v>111</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9525,21 +9571,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9551,15 +9597,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9596,31 +9644,31 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -9629,7 +9677,7 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9640,14 +9688,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9663,21 +9711,23 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>138</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>139</v>
+        <v>379</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>205</v>
+        <v>380</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9713,19 +9763,19 @@
         <v>80</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>206</v>
+        <v>383</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9737,16 +9787,16 @@
         <v>102</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>104</v>
+        <v>385</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9757,44 +9807,46 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K65" t="s" s="2">
-        <v>442</v>
+        <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9842,28 +9894,28 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>206</v>
+        <v>440</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9874,14 +9926,12 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9890,7 +9940,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>91</v>
@@ -9899,16 +9949,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9959,7 +10009,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>206</v>
+        <v>451</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9971,19 +10021,19 @@
         <v>102</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -9991,14 +10041,12 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10010,7 +10058,7 @@
         <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
@@ -10019,13 +10067,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>452</v>
+        <v>174</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>454</v>
+        <v>176</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10076,19 +10124,19 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10097,7 +10145,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10108,23 +10156,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10136,15 +10182,17 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>457</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>458</v>
+        <v>139</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10181,19 +10229,19 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10214,7 +10262,7 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10225,12 +10273,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10242,26 +10292,24 @@
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>199</v>
+        <v>461</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N69" t="s" s="2">
         <v>463</v>
       </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10310,19 +10358,19 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>464</v>
+        <v>182</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10331,7 +10379,7 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10342,12 +10390,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C70" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="B70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10356,16 +10406,16 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>466</v>
@@ -10425,7 +10475,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>469</v>
+        <v>182</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10437,16 +10487,16 @@
         <v>102</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>470</v>
+        <v>146</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10457,12 +10507,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10471,7 +10523,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>91</v>
@@ -10483,17 +10535,15 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10542,7 +10592,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>473</v>
+        <v>182</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10554,19 +10604,19 @@
         <v>102</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10574,12 +10624,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10588,7 +10640,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10597,20 +10649,18 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>221</v>
+        <v>476</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10635,10 +10685,10 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>80</v>
@@ -10659,7 +10709,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>480</v>
+        <v>182</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10671,19 +10721,19 @@
         <v>102</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10691,10 +10741,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10705,10 +10755,10 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>80</v>
@@ -10717,16 +10767,16 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>315</v>
+        <v>482</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10752,13 +10802,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>489</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10776,13 +10826,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>102</v>
@@ -10791,13 +10841,13 @@
         <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>320</v>
+        <v>111</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10808,10 +10858,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10822,29 +10872,27 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J74" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K74" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10893,31 +10941,31 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>489</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>111</v>
+        <v>491</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -10925,14 +10973,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10948,19 +10996,19 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11010,7 +11058,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11022,41 +11070,41 @@
         <v>102</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>506</v>
+        <v>111</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -11068,16 +11116,16 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11103,10 +11151,10 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -11127,42 +11175,42 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>515</v>
+        <v>339</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>517</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11173,7 +11221,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>91</v>
@@ -11185,16 +11233,16 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11220,13 +11268,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11244,42 +11292,42 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>522</v>
+        <v>339</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11293,25 +11341,25 @@
         <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>526</v>
+        <v>192</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>292</v>
+        <v>514</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11361,7 +11409,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11373,34 +11421,34 @@
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>530</v>
+        <v>111</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11419,16 +11467,16 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>292</v>
+        <v>522</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11478,7 +11526,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11490,34 +11538,34 @@
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11536,16 +11584,16 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11571,13 +11619,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>542</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>543</v>
+        <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11595,7 +11643,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11607,30 +11655,30 @@
         <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>319</v>
+        <v>532</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>320</v>
+        <v>533</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11641,28 +11689,28 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>548</v>
+        <v>281</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>551</v>
+        <v>311</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11712,42 +11760,42 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>80</v>
+        <v>541</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11758,7 +11806,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -11767,18 +11815,20 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -11827,42 +11877,42 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>111</v>
+        <v>548</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11873,27 +11923,29 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>199</v>
+        <v>551</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>200</v>
+        <v>552</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -11942,53 +11994,53 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>202</v>
+        <v>550</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>111</v>
+        <v>548</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -11997,19 +12049,19 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>139</v>
+        <v>558</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>205</v>
+        <v>559</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12035,70 +12087,70 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>206</v>
+        <v>557</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12111,26 +12163,24 @@
         <v>80</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>138</v>
+        <v>566</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12178,7 +12228,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12190,16 +12240,16 @@
         <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>104</v>
+        <v>571</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -12210,10 +12260,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12221,10 +12271,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12236,17 +12286,15 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>199</v>
+        <v>573</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12295,13 +12343,13 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>102</v>
@@ -12310,7 +12358,7 @@
         <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
@@ -12319,7 +12367,7 @@
         <v>111</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12327,10 +12375,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12353,17 +12401,15 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>573</v>
+        <v>175</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12412,7 +12458,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>572</v>
+        <v>177</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12421,22 +12467,22 @@
         <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>320</v>
+        <v>111</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12444,21 +12490,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12470,16 +12516,16 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>578</v>
+        <v>139</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>579</v>
+        <v>225</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12517,43 +12563,43 @@
         <v>80</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>577</v>
+        <v>182</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12561,14 +12607,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12581,22 +12627,26 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>555</v>
+        <v>138</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12644,7 +12694,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12656,16 +12706,16 @@
         <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>585</v>
+        <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -12676,10 +12726,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12687,7 +12737,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>90</v>
@@ -12702,15 +12752,17 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>200</v>
+        <v>586</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12759,22 +12811,22 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>202</v>
+        <v>585</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>80</v>
+        <v>588</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -12783,7 +12835,7 @@
         <v>111</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -12791,21 +12843,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -12817,16 +12869,16 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>139</v>
+        <v>591</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>205</v>
+        <v>592</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12864,43 +12916,43 @@
         <v>80</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>206</v>
+        <v>590</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>593</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -12908,46 +12960,44 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -12995,31 +13045,31 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13027,10 +13077,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13041,7 +13091,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -13053,17 +13103,15 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>199</v>
+        <v>573</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13112,13 +13160,13 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>102</v>
@@ -13127,7 +13175,7 @@
         <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
@@ -13144,10 +13192,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13170,17 +13218,15 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>594</v>
+        <v>175</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13205,13 +13251,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13229,7 +13275,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>593</v>
+        <v>177</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13238,29 +13284,499 @@
         <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ94" t="s" s="2">
+      <c r="AJ95" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK94" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO94" t="s" s="2">
+      <c r="AK97" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO94">
+  <autoFilter ref="A1:AO98">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13270,7 +13786,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="636">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T17:43:55+00:00</t>
+    <t>2024-01-24T10:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1676,6 +1676,65 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1
+per-1</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.end</t>
+  </si>
+  <si>
+    <t>Date à laquelle l'essai se termine (la date initiale est prévisionnelle) / Completion date</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
@@ -2242,7 +2301,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO98"/>
+  <dimension ref="A1:AO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11692,26 +11751,24 @@
         <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>537</v>
+        <v>175</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11760,7 +11817,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>536</v>
+        <v>177</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11769,44 +11826,44 @@
         <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>540</v>
+        <v>111</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>542</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -11815,19 +11872,19 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>544</v>
+        <v>138</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>545</v>
+        <v>139</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>546</v>
+        <v>225</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11865,54 +11922,54 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>543</v>
+        <v>182</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>548</v>
+        <v>104</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>542</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11923,10 +11980,10 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>80</v>
@@ -11935,16 +11992,16 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>311</v>
+        <v>542</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11994,42 +12051,42 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>555</v>
+        <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>556</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12043,7 +12100,7 @@
         <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>80</v>
@@ -12052,22 +12109,24 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>240</v>
+        <v>539</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>334</v>
+        <v>550</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="R84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12087,13 +12146,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -12111,7 +12170,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12120,33 +12179,33 @@
         <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>338</v>
+        <v>553</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>339</v>
+        <v>554</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>564</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12157,28 +12216,28 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>566</v>
+        <v>281</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>569</v>
+        <v>311</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12228,42 +12287,42 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12274,7 +12333,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12283,18 +12342,20 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12343,42 +12404,42 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>111</v>
+        <v>567</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12389,27 +12450,29 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>174</v>
+        <v>570</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>175</v>
+        <v>571</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12458,53 +12521,53 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>177</v>
+        <v>569</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>111</v>
+        <v>567</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>80</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12513,19 +12576,19 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>139</v>
+        <v>577</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>225</v>
+        <v>578</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12551,70 +12614,70 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>80</v>
+        <v>579</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>182</v>
+        <v>576</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>80</v>
+        <v>582</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>80</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12627,26 +12690,24 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>138</v>
+        <v>585</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12706,16 +12767,16 @@
         <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>104</v>
+        <v>590</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -12726,10 +12787,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12737,10 +12798,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12752,17 +12813,15 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>174</v>
+        <v>592</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12811,13 +12870,13 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>102</v>
@@ -12826,7 +12885,7 @@
         <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -12835,7 +12894,7 @@
         <v>111</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -12843,10 +12902,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12869,17 +12928,15 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>591</v>
+        <v>175</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12928,7 +12985,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>590</v>
+        <v>177</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12937,22 +12994,22 @@
         <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>593</v>
+        <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>594</v>
+        <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -12960,21 +13017,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -12986,16 +13043,16 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>596</v>
+        <v>139</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>597</v>
+        <v>225</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13033,43 +13090,43 @@
         <v>80</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>595</v>
+        <v>182</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>598</v>
+        <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>599</v>
+        <v>80</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13077,14 +13134,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13097,13 +13154,13 @@
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>573</v>
+        <v>138</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>601</v>
@@ -13111,8 +13168,12 @@
       <c r="M93" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13160,7 +13221,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13172,16 +13233,16 @@
         <v>102</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>603</v>
+        <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
@@ -13203,7 +13264,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>90</v>
@@ -13221,12 +13282,14 @@
         <v>174</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>175</v>
+        <v>605</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13275,22 +13338,22 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>177</v>
+        <v>604</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>80</v>
+        <v>607</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
@@ -13299,7 +13362,7 @@
         <v>111</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13307,21 +13370,21 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13333,16 +13396,16 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>139</v>
+        <v>610</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>225</v>
+        <v>611</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13380,43 +13443,43 @@
         <v>80</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>182</v>
+        <v>609</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>80</v>
+        <v>612</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>613</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13424,46 +13487,44 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>582</v>
+        <v>615</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -13511,31 +13572,31 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>80</v>
+        <v>617</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13543,10 +13604,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13557,7 +13618,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -13569,17 +13630,15 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>174</v>
+        <v>592</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -13628,13 +13687,13 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>102</v>
@@ -13643,7 +13702,7 @@
         <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
@@ -13660,10 +13719,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13686,17 +13745,15 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>612</v>
+        <v>175</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13721,13 +13778,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>614</v>
+        <v>80</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>615</v>
+        <v>80</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -13745,7 +13802,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>611</v>
+        <v>177</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13754,29 +13811,499 @@
         <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ98" t="s" s="2">
+      <c r="AJ99" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK98" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AK101" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AL102" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AM102" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO98" t="s" s="2">
+      <c r="AN102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO102" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO98">
+  <autoFilter ref="A1:AO102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13786,7 +14313,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI97">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
